--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/L1cam-Cntn1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/L1cam-Cntn1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>22.59487733333333</v>
+        <v>7.741029</v>
       </c>
       <c r="H2">
-        <v>67.78463199999999</v>
+        <v>23.223087</v>
       </c>
       <c r="I2">
-        <v>0.7395019553569895</v>
+        <v>0.4930486933812723</v>
       </c>
       <c r="J2">
-        <v>0.7395019553569895</v>
+        <v>0.4930486933812723</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>6.641380079218665</v>
+        <v>2.275343877057</v>
       </c>
       <c r="R2">
-        <v>59.77242071296799</v>
+        <v>20.478094893513</v>
       </c>
       <c r="S2">
-        <v>0.7395019553569895</v>
+        <v>0.4930486933812723</v>
       </c>
       <c r="T2">
-        <v>0.7395019553569895</v>
+        <v>0.4930486933812723</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>0.9137960000000001</v>
       </c>
       <c r="I3">
-        <v>0.009969131776025512</v>
+        <v>0.0194007766416684</v>
       </c>
       <c r="J3">
-        <v>0.009969131776025512</v>
+        <v>0.0194007766416684</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -632,10 +632,10 @@
         <v>0.805784399004</v>
       </c>
       <c r="S3">
-        <v>0.009969131776025512</v>
+        <v>0.0194007766416684</v>
       </c>
       <c r="T3">
-        <v>0.009969131776025512</v>
+        <v>0.0194007766416684</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.654706</v>
+        <v>7.654706000000001</v>
       </c>
       <c r="H4">
         <v>22.964118</v>
       </c>
       <c r="I4">
-        <v>0.250528912866985</v>
+        <v>0.4875505299770593</v>
       </c>
       <c r="J4">
-        <v>0.250528912866985</v>
+        <v>0.4875505299770593</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -694,10 +694,10 @@
         <v>20.249736288282</v>
       </c>
       <c r="S4">
-        <v>0.250528912866985</v>
+        <v>0.4875505299770593</v>
       </c>
       <c r="T4">
-        <v>0.250528912866985</v>
+        <v>0.4875505299770593</v>
       </c>
     </row>
   </sheetData>
